--- a/trunk/ eproject-sem-03-group04/Entity.xlsx
+++ b/trunk/ eproject-sem-03-group04/Entity.xlsx
@@ -297,9 +297,6 @@
     <t>(11)</t>
   </si>
   <si>
-    <t>FEEDBACK</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -526,13 +523,16 @@
   </si>
   <si>
     <t>TABLE NUMBER</t>
+  </si>
+  <si>
+    <t>FEEDBACK_AND_CONTACT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -577,6 +577,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="VNI-Times"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -658,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -673,14 +680,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -986,7 +994,7 @@
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27" style="2" bestFit="1" customWidth="1"/>
@@ -996,25 +1004,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1045,7 +1053,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -1062,7 +1070,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1079,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -1096,7 +1104,7 @@
         <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -1127,7 +1135,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -1144,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -1161,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -1172,7 +1180,7 @@
         <v>19</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -1183,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -1194,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -1215,7 +1223,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -1226,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -1237,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -1256,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -1278,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="5:9">
@@ -1289,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -1300,7 +1308,7 @@
         <v>26</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -1311,7 +1319,7 @@
         <v>49</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="5:9">
@@ -1322,7 +1330,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="5:9">
@@ -1333,18 +1341,18 @@
         <v>19</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="G28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" spans="5:9">
@@ -1355,7 +1363,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="5:9">
@@ -1366,7 +1374,7 @@
         <v>8</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="5:9">
@@ -1385,7 +1393,7 @@
         <v>8</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="5:9">
@@ -1407,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="5:9">
@@ -1418,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="5:9">
@@ -1429,7 +1437,7 @@
         <v>26</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="5:9">
@@ -1440,7 +1448,7 @@
         <v>49</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="5:9">
@@ -1451,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="5:9">
@@ -1462,7 +1470,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="5:9">
@@ -1475,13 +1483,13 @@
     </row>
     <row r="41" spans="5:9">
       <c r="G41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="5:9">
@@ -1492,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="5:9">
@@ -1503,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="5:9">
@@ -1514,7 +1522,7 @@
         <v>14</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="5:9">
@@ -1525,7 +1533,7 @@
         <v>26</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="5:9">
@@ -1536,7 +1544,7 @@
         <v>26</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="5:9">
@@ -1547,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="5:9">
@@ -1558,7 +1566,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="5:9">
@@ -1569,7 +1577,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="5:9">
@@ -1580,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="5:9">
@@ -1591,7 +1599,7 @@
         <v>55</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="5:9">
@@ -1602,7 +1610,7 @@
         <v>55</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="5:9">
@@ -1613,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="5:9">
@@ -1624,7 +1632,7 @@
         <v>49</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="5:9">
@@ -1635,7 +1643,7 @@
         <v>14</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="5:9">
@@ -1646,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="5:9">
@@ -1657,7 +1665,7 @@
         <v>8</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="5:9">
@@ -1676,7 +1684,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="5:9">
@@ -1687,7 +1695,7 @@
         <v>8</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="5:9">
@@ -1698,7 +1706,7 @@
         <v>10</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="5:9">
@@ -1709,7 +1717,7 @@
         <v>55</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="5:9">
@@ -1720,7 +1728,7 @@
         <v>14</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="5:9">
@@ -1731,7 +1739,7 @@
         <v>14</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="5:9">
@@ -1750,7 +1758,7 @@
         <v>8</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="5:9">
@@ -1761,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="5:9">
@@ -1772,7 +1780,7 @@
         <v>14</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="5:9">
@@ -1786,7 +1794,7 @@
         <v>55</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="5:9">
@@ -1805,7 +1813,7 @@
         <v>8</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="5:9">
@@ -1816,7 +1824,7 @@
         <v>14</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="5:9">
@@ -1827,7 +1835,7 @@
         <v>55</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="5:9">
@@ -1838,7 +1846,7 @@
         <v>55</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="5:9">
@@ -1849,7 +1857,7 @@
         <v>55</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="5:9">
@@ -1860,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="5:9">
@@ -1871,7 +1879,7 @@
         <v>8</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="5:9">
@@ -1890,7 +1898,7 @@
         <v>8</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="5:9">
@@ -1901,7 +1909,7 @@
         <v>14</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="5:9">
@@ -1912,7 +1920,7 @@
         <v>55</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="5:9">
@@ -1923,7 +1931,7 @@
         <v>55</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="5:9">
@@ -1934,7 +1942,7 @@
         <v>55</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="5:9">
@@ -1945,7 +1953,7 @@
         <v>14</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="5:9">
@@ -1956,7 +1964,7 @@
         <v>8</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="5:9">
@@ -1964,7 +1972,7 @@
         <v>92</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="5:9">
@@ -1975,114 +1983,115 @@
         <v>8</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="5:9">
       <c r="G88" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="5:9">
       <c r="G89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="5:9" ht="16.5">
+      <c r="F90" s="14"/>
+      <c r="G90" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="5:9">
-      <c r="G90" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="5:9">
       <c r="G91" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="5:9">
       <c r="G92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="5:9">
       <c r="G93" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="5:9">
       <c r="G94" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="5:9">
       <c r="G95" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="5:9">
       <c r="E96" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="7:9">
       <c r="G97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="I97" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/ eproject-sem-03-group04/Entity.xlsx
+++ b/trunk/ eproject-sem-03-group04/Entity.xlsx
@@ -16,29 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="170">
-  <si>
-    <t>BRANCHES</t>
-  </si>
-  <si>
-    <t>OFFICES</t>
-  </si>
-  <si>
-    <t>EMPLOYEES</t>
-  </si>
-  <si>
-    <t>DELIVERABLES</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="172">
   <si>
     <t>ROLES</t>
   </si>
   <si>
-    <t>CUSTOMERS</t>
-  </si>
-  <si>
-    <t>SERVICES</t>
-  </si>
-  <si>
     <t>CHARGES_ON_DISTANCE</t>
   </si>
   <si>
@@ -84,9 +66,6 @@
     <t>employeeId</t>
   </si>
   <si>
-    <t>employeeName</t>
-  </si>
-  <si>
     <t>employeeEmail</t>
   </si>
   <si>
@@ -129,9 +108,6 @@
     <t>customerPassword</t>
   </si>
   <si>
-    <t>customerName</t>
-  </si>
-  <si>
     <t>customerBirthday</t>
   </si>
   <si>
@@ -144,9 +120,6 @@
     <t>customerPhone</t>
   </si>
   <si>
-    <t>deliverableId</t>
-  </si>
-  <si>
     <t>deliverableSubject</t>
   </si>
   <si>
@@ -225,9 +198,6 @@
     <t>servicesCharges</t>
   </si>
   <si>
-    <t>DELIVERABLES_DETAIL</t>
-  </si>
-  <si>
     <t>detailId</t>
   </si>
   <si>
@@ -526,6 +496,42 @@
   </si>
   <si>
     <t>FEEDBACK_AND_CONTACT</t>
+  </si>
+  <si>
+    <t>OFFICE</t>
+  </si>
+  <si>
+    <t>BRANCHE</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>DELIVERABLE</t>
+  </si>
+  <si>
+    <t>SERVICE</t>
+  </si>
+  <si>
+    <t>employeeFirstName</t>
+  </si>
+  <si>
+    <t>employeeLastName</t>
+  </si>
+  <si>
+    <t>customerFistName</t>
+  </si>
+  <si>
+    <t>customerLastName</t>
+  </si>
+  <si>
+    <t>DELIVERABLE_DETAIL</t>
   </si>
 </sst>
 </file>
@@ -682,13 +688,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I97"/>
+  <dimension ref="B2:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1004,25 +1010,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="3"/>
       <c r="E2" s="10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1030,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1044,16 +1050,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -1061,16 +1067,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1078,16 +1084,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -1095,16 +1101,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -1112,13 +1118,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -1126,16 +1132,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -1143,16 +1149,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -1160,938 +1166,971 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="G14" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="E15" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:9">
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="G20" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="G28" s="2" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="5:9">
-      <c r="G29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>8</v>
+      <c r="G29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="G30" s="4" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="5:9">
-      <c r="E31" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>5</v>
+      <c r="G31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="5:9">
-      <c r="G32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>131</v>
+      <c r="E32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="5:9">
-      <c r="G33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>10</v>
+      <c r="G33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="G34" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="G35" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="G36" s="2" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="G37" s="2" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="G38" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="G39" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="5:9">
-      <c r="E40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>3</v>
+      <c r="G40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="5:9">
-      <c r="G41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>8</v>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="G42" s="4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="5:9">
-      <c r="G43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>134</v>
+      <c r="E43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="5:9">
-      <c r="G44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>14</v>
+      <c r="G44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="5:9">
-      <c r="G45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>26</v>
+      <c r="G45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="G46" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="G47" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="G48" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="G49" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="G50" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="G51" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="G52" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="G53" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="G54" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="G55" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="5:9">
-      <c r="G56" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H56" s="4" t="s">
+      <c r="G56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9">
+      <c r="G57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9">
+      <c r="G58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="5:9">
-      <c r="G57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="5:9">
-      <c r="E58" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>69</v>
+      <c r="I58" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="5:9">
-      <c r="G59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>8</v>
+      <c r="G59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="5:9">
-      <c r="G60" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>8</v>
+      <c r="G60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="5:9">
-      <c r="G61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>147</v>
+      <c r="E61" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="5:9">
-      <c r="G62" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>55</v>
+      <c r="G62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="5:9">
-      <c r="G63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>14</v>
+      <c r="G63" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="G64" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="5:9">
-      <c r="E65" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>64</v>
+      <c r="G65" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="5:9">
-      <c r="G66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H66" s="1" t="s">
+      <c r="G66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="G67" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="5:9">
-      <c r="G68" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>122</v>
+      <c r="E68" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="5:9">
-      <c r="F69" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>55</v>
+      <c r="G69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="5:9">
-      <c r="E70" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F70" s="5" t="s">
+      <c r="G70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9">
+      <c r="G71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9">
+      <c r="F72" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="71" spans="5:9">
-      <c r="G71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="5:9">
       <c r="G72" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="5:9">
-      <c r="G73" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>153</v>
+      <c r="E73" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="5:9">
-      <c r="G74" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>55</v>
+      <c r="G74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="G75" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="G76" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="I76" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="5:9">
+      <c r="G77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="5:9">
+      <c r="G78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="5:9">
-      <c r="G77" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H77" s="4" t="s">
+    <row r="79" spans="5:9">
+      <c r="G79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="5:9">
-      <c r="E78" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="5:9">
-      <c r="G79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I79" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="5:9">
-      <c r="G80" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>14</v>
+      <c r="G80" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="5:9">
-      <c r="G81" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>153</v>
+      <c r="E81" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="5:9">
-      <c r="G82" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>55</v>
+      <c r="G82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="5:9">
       <c r="G83" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="5:9">
       <c r="G84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="5:9">
-      <c r="G85" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H85" s="4" t="s">
+      <c r="G85" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="5:9">
+      <c r="G86" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="5:9">
+      <c r="G87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="5:9">
-      <c r="E86" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="5:9">
-      <c r="G87" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I87" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="5:9">
-      <c r="G88" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>10</v>
+      <c r="G88" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="I88" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="5:9">
+      <c r="E89" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="5:9">
-      <c r="G89" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="5:9" ht="16.5">
-      <c r="F90" s="14"/>
-      <c r="G90" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>14</v>
+    <row r="90" spans="5:9">
+      <c r="G90" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="5:9">
       <c r="G91" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="5:9">
       <c r="G92" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93" spans="5:9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="5:9" ht="16.5">
+      <c r="F93" s="12"/>
       <c r="G93" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="5:9">
       <c r="G94" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="5:9">
       <c r="G95" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="5:9">
-      <c r="E96" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="7:9">
+      <c r="G96" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="5:9">
       <c r="G97" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="5:9">
+      <c r="G98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="5:9">
+      <c r="E99" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="5:9">
+      <c r="G100" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/ eproject-sem-03-group04/Entity.xlsx
+++ b/trunk/ eproject-sem-03-group04/Entity.xlsx
@@ -516,9 +516,6 @@
     <t>DELIVERABLE</t>
   </si>
   <si>
-    <t>SERVICE</t>
-  </si>
-  <si>
     <t>employeeFirstName</t>
   </si>
   <si>
@@ -532,6 +529,9 @@
   </si>
   <si>
     <t>DELIVERABLE_DETAIL</t>
+  </si>
+  <si>
+    <t>SERVICETYPE</t>
   </si>
 </sst>
 </file>
@@ -992,7 +992,7 @@
   <dimension ref="B2:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1132,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>5</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="23" spans="5:9">
       <c r="G23" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>4</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="24" spans="5:9">
       <c r="G24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>4</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="36" spans="5:9">
       <c r="G36" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>4</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="37" spans="5:9">
       <c r="G37" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>4</v>
@@ -1712,7 +1712,7 @@
         <v>78</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="5:9">

--- a/trunk/ eproject-sem-03-group04/Entity.xlsx
+++ b/trunk/ eproject-sem-03-group04/Entity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="173">
   <si>
     <t>ROLES</t>
   </si>
@@ -532,6 +532,9 @@
   </si>
   <si>
     <t>SERVICETYPE</t>
+  </si>
+  <si>
+    <t>aaaa</t>
   </si>
 </sst>
 </file>
@@ -992,7 +995,7 @@
   <dimension ref="B2:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1340,6 +1343,9 @@
       </c>
     </row>
     <row r="27" spans="5:9">
+      <c r="E27" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
       </c>
